--- a/rxrx1_pca_cvm_results_sudden.xlsx
+++ b/rxrx1_pca_cvm_results_sudden.xlsx
@@ -470,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -646,16 +646,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -712,13 +712,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
